--- a/Experiment Output/Feb/Post Scale Rerun/PostStabilityRuns/Format/LIME_XAI_Metrics_Experiments.xlsx
+++ b/Experiment Output/Feb/Post Scale Rerun/PostStabilityRuns/Format/LIME_XAI_Metrics_Experiments.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU_D\Dissertation\Dissertation_PreWork\Experiment Output\Feb\Post Scale Rerun\PostStabilityRuns\Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T_UD\Dissertation\PreWork_Repo\Dissertation_PreWork\Experiment Output\Feb\Post Scale Rerun\PostStabilityRuns\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F919E-943B-4BC5-8DD9-F91A3B6DC516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC780D4-54B0-411D-8390-EDFCF6F45E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="630" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sample Number</t>
   </si>
@@ -39,13 +52,16 @@
   <si>
     <t>Comp_Efficiency</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -242,12 +258,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,25 +566,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -588,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -608,7 +624,7 @@
         <v>750.00152897834778</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -628,7 +644,7 @@
         <v>741.06570982933044</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -648,7 +664,7 @@
         <v>733.7480673789978</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -668,7 +684,7 @@
         <v>757.41206884384155</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -688,7 +704,7 @@
         <v>737.79935050010681</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -708,7 +724,7 @@
         <v>730.41704988479614</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -728,7 +744,7 @@
         <v>737.38516688346863</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -748,7 +764,7 @@
         <v>739.57567715644836</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -768,7 +784,7 @@
         <v>752.98923945426941</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -788,7 +804,7 @@
         <v>742.27454018592834</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -808,7 +824,7 @@
         <v>735.21052360534668</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -828,7 +844,7 @@
         <v>742.63476800918579</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -848,7 +864,7 @@
         <v>754.43214774131775</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="7">
         <v>14</v>
       </c>
@@ -868,7 +884,7 @@
         <v>729.79396629333496</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="7">
         <v>15</v>
       </c>
@@ -888,7 +904,7 @@
         <v>733.36279630661011</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="7">
         <v>16</v>
       </c>
@@ -908,7 +924,7 @@
         <v>732.90985655784607</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="7">
         <v>17</v>
       </c>
@@ -928,7 +944,7 @@
         <v>754.76091527938843</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="7">
         <v>18</v>
       </c>
@@ -948,7 +964,7 @@
         <v>761.17329931259155</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="7">
         <v>19</v>
       </c>
@@ -968,7 +984,7 @@
         <v>739.67303013801575</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -986,6 +1002,31 @@
       </c>
       <c r="G22" s="12">
         <v>754.84626245498657</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9">
+        <f>AVERAGE(C3:C22)</f>
+        <v>24.923076923076923</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:G25" si="0">AVERAGE(D3:D22)</f>
+        <v>50.615384615384627</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>89.92307692307692</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.38804506846417841</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
+        <v>743.07329823970792</v>
       </c>
     </row>
   </sheetData>
